--- a/30_Day_Core_Python_Tracking_Sheet.xlsx
+++ b/30_Day_Core_Python_Tracking_Sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>Day</t>
   </si>
@@ -43,13 +43,13 @@
     <t>Easy</t>
   </si>
   <si>
-    <t>20 mins</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>Largest/smallest, Swap numbers, Char frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 </t>
   </si>
   <si>
     <t>Fibonacci, Prime check, Primes till N</t>
@@ -151,7 +151,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -183,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -198,7 +198,13 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -511,15 +517,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="42.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="26.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="42.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="26.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="17.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -552,26 +558,34 @@
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -583,7 +597,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -595,7 +609,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -607,7 +621,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -619,7 +633,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -631,7 +645,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -643,7 +657,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -655,7 +669,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -667,7 +681,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -679,7 +693,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -691,7 +705,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -703,7 +717,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -715,7 +729,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -727,7 +741,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -739,7 +753,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -751,7 +765,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="3">
         <v>18</v>
       </c>

--- a/30_Day_Core_Python_Tracking_Sheet.xlsx
+++ b/30_Day_Core_Python_Tracking_Sheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>Day</t>
   </si>
@@ -141,7 +141,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +152,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -183,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -197,8 +203,11 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -207,6 +216,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -517,12 +529,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="6" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="42.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="26.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="16.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="17.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="42.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="26.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="16.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="17.290714285714284" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -538,7 +550,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -558,7 +570,7 @@
       <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>20</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -578,7 +590,7 @@
       <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
@@ -592,10 +604,18 @@
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="3">
@@ -604,10 +624,18 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="3">
@@ -616,10 +644,18 @@
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="3">
@@ -628,10 +664,18 @@
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="3">
@@ -640,10 +684,18 @@
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6">
+        <v>20</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="3">
@@ -652,10 +704,18 @@
       <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="3">
@@ -664,10 +724,18 @@
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="6">
+        <v>20</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="3">
@@ -678,7 +746,7 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
@@ -690,7 +758,7 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="6"/>
       <c r="F12" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
@@ -702,7 +770,7 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
@@ -714,7 +782,7 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="6"/>
       <c r="F14" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
@@ -726,7 +794,7 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
@@ -738,7 +806,7 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="6"/>
       <c r="F16" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
@@ -750,7 +818,7 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
@@ -762,7 +830,7 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
@@ -774,10 +842,10 @@
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="E19" s="6"/>
       <c r="F19" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -786,10 +854,10 @@
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -798,10 +866,10 @@
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="E21" s="6"/>
       <c r="F21" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -810,10 +878,10 @@
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="E22" s="6"/>
       <c r="F22" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -822,10 +890,10 @@
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -834,10 +902,10 @@
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -846,10 +914,10 @@
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -858,10 +926,10 @@
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="E26" s="6"/>
       <c r="F26" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -870,10 +938,10 @@
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="E27" s="6"/>
       <c r="F27" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -882,10 +950,10 @@
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="E28" s="6"/>
       <c r="F28" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -894,7 +962,7 @@
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="E29" s="6"/>
       <c r="F29" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
@@ -906,7 +974,7 @@
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="E30" s="6"/>
       <c r="F30" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
@@ -918,7 +986,7 @@
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="E31" s="6"/>
       <c r="F31" s="4"/>
     </row>
   </sheetData>
